--- a/biology/Zoologie/Diamant_de_Nouvelle-Guinée/Diamant_de_Nouvelle-Guinée.xlsx
+++ b/biology/Zoologie/Diamant_de_Nouvelle-Guinée/Diamant_de_Nouvelle-Guinée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diamant_de_Nouvelle-Guin%C3%A9e</t>
+          <t>Diamant_de_Nouvelle-Guinée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrura papuana
 Le Diamant de Nouvelle-Guinée, Diamant de Papouasie ou Pape de Papouasie (Erythrura papuana), est une espèce de  passereau vivant en Nouvelle-Guinée appartenant à la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diamant_de_Nouvelle-Guin%C3%A9e</t>
+          <t>Diamant_de_Nouvelle-Guinée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure entre 15,5 et 16,5 cm. Il a un masque bleu couvrant le crâne jusqu'à l'œil, les joues et le menton. Il a le dos, la nuque et les ailes vert mousse. La gorge, la poitrine et le ventre vert anis (vert clair). Il a la queue et le croupion rouges. Le bec est noir et fort.
 La femelle a le masque moins étendu. Seul le mâle chante.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diamant_de_Nouvelle-Guin%C3%A9e</t>
+          <t>Diamant_de_Nouvelle-Guinée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Diamant de Papouasie en Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après des études récentes[Quand ?] faites par le Dr C. Mettke-Hofman et G. Hofmann, tous les Diamants de Papouasie que l'on trouve en Europe sont en réalité une sous-espèce de Diamant de Kittlitz. Les différences sont que le « faux » Diamant de Papouasie mesure 14 cm au lieu de 16 cm, est plus foncé, a un masque moins étendu et un bec moins fort que le « vrai » Diamant de Papouasie.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diamant_de_Nouvelle-Guin%C3%A9e</t>
+          <t>Diamant_de_Nouvelle-Guinée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit sur les versants boisés des montagnes de Nouvelle-Guinée. Il doit se nourrir de graines et de fruits. Son comportement est peu connu.
 </t>
